--- a/data/exp_raw/lastrun.xlsx
+++ b/data/exp_raw/lastrun.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>RS</t>
   </si>
@@ -140,6 +140,15 @@
     <t>ul1</t>
   </si>
   <si>
+    <t>ufs2</t>
+  </si>
+  <si>
+    <t>ufs3</t>
+  </si>
+  <si>
+    <t>ufs4</t>
+  </si>
+  <si>
     <t>spc</t>
   </si>
   <si>
@@ -183,6 +192,12 @@
   </si>
   <si>
     <t>ann</t>
+  </si>
+  <si>
+    <t>ASSA</t>
+  </si>
+  <si>
+    <t>v2</t>
   </si>
 </sst>
 </file>
@@ -575,7 +590,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -699,6 +714,183 @@
         <v>36</v>
       </c>
     </row>
+    <row r="3" spans="1:19">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3">
+        <v>202012</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0.0</v>
+      </c>
+      <c r="L3">
+        <v>0.0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <v>202012</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0.0</v>
+      </c>
+      <c r="L4">
+        <v>0.0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>202012</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0.0</v>
+      </c>
+      <c r="L5">
+        <v>0.0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -706,7 +898,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -714,37 +906,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -755,31 +947,31 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J2" t="s">
         <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -790,31 +982,31 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J3" t="s">
         <v>27</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -825,31 +1017,31 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s">
         <v>27</v>
       </c>
       <c r="K4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -860,31 +1052,31 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s">
         <v>27</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -895,31 +1087,556 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J6" t="s">
         <v>27</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
